--- a/EW2020.xlsx
+++ b/EW2020.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achim Sauter\BigData\Antwerp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PytProg\Covid\Covid01\streamlit_covid19_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8DF33AD1-325D-4321-9F79-46BA0E8E5D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D31AD8-94B7-4152-9424-D1BB925BDB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EW2020" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Baden-Württemberg</t>
   </si>
@@ -344,12 +355,15 @@
   </si>
   <si>
     <t>Insgesamt</t>
+  </si>
+  <si>
+    <t>ID Bundesland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1184,14 +1198,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
@@ -6395,6 +6412,59 @@
         <v>2120237</v>
       </c>
     </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94">
+        <v>8</v>
+      </c>
+      <c r="D94">
+        <v>9</v>
+      </c>
+      <c r="E94">
+        <v>11</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94">
+        <v>4</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>6</v>
+      </c>
+      <c r="J94">
+        <v>13</v>
+      </c>
+      <c r="K94">
+        <v>3</v>
+      </c>
+      <c r="L94">
+        <v>5</v>
+      </c>
+      <c r="M94">
+        <v>7</v>
+      </c>
+      <c r="N94">
+        <v>10</v>
+      </c>
+      <c r="O94">
+        <v>14</v>
+      </c>
+      <c r="P94">
+        <v>15</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>16</v>
+      </c>
+    </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C95">
         <f>SUM(C93:R93)</f>
